--- a/data/trans_orig/P24B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>64789</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50964</v>
+        <v>51880</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81335</v>
+        <v>80243</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1733312484332703</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1363445033021382</v>
+        <v>0.1387957837616966</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2175969639624461</v>
+        <v>0.2146761347183667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -764,19 +764,19 @@
         <v>33120</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23513</v>
+        <v>23139</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44274</v>
+        <v>43624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1876026375052416</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1331896785233145</v>
+        <v>0.1310664377829071</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2507856417574831</v>
+        <v>0.2471045887377165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -785,19 +785,19 @@
         <v>97909</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80876</v>
+        <v>81198</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117930</v>
+        <v>116955</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.177909399150813</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1469603647220174</v>
+        <v>0.1475443702869436</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2142901500762096</v>
+        <v>0.2125195712602053</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>264770</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>246400</v>
+        <v>245486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283824</v>
+        <v>280418</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7083437214433466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6591985603235448</v>
+        <v>0.6567541299191675</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7593196695454706</v>
+        <v>0.7502092478811697</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -835,19 +835,19 @@
         <v>108319</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>95090</v>
+        <v>94991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121447</v>
+        <v>120090</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6135604767164895</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5386256413978163</v>
+        <v>0.538068180437722</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6879276346566654</v>
+        <v>0.6802382357734418</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>362</v>
@@ -856,19 +856,19 @@
         <v>373088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>351552</v>
+        <v>349448</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>394773</v>
+        <v>396119</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6779379930542638</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.638803755421695</v>
+        <v>0.6349813325630516</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7173407767962423</v>
+        <v>0.7197865480104008</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>44228</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32795</v>
+        <v>33514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58272</v>
+        <v>59033</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1183250301233831</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08773761518368113</v>
+        <v>0.08965970785445448</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1558950392033959</v>
+        <v>0.1579321192088637</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -906,19 +906,19 @@
         <v>35103</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25580</v>
+        <v>25306</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46723</v>
+        <v>46481</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1988368857782689</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1448982919695279</v>
+        <v>0.1433462785954266</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2646587454457552</v>
+        <v>0.2632852280019026</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -927,19 +927,19 @@
         <v>79331</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>63320</v>
+        <v>63424</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>96586</v>
+        <v>97925</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1441526077949232</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1150579540810745</v>
+        <v>0.1152474307028204</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1755054055749854</v>
+        <v>0.1779395035506463</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>116521</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97611</v>
+        <v>98353</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139038</v>
+        <v>139722</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.14266247770127</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1195105775296282</v>
+        <v>0.1204185025497875</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1702322687053683</v>
+        <v>0.1710694184058175</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>88</v>
@@ -1052,19 +1052,19 @@
         <v>92207</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76747</v>
+        <v>75924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>111406</v>
+        <v>109988</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1682431955483219</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1400361231218322</v>
+        <v>0.1385340987704329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2032757441162961</v>
+        <v>0.2006881657541783</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>200</v>
@@ -1073,19 +1073,19 @@
         <v>208727</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>183887</v>
+        <v>182193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>237161</v>
+        <v>238254</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1529346977198802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1347340612391343</v>
+        <v>0.1334927485865086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1737680919369835</v>
+        <v>0.1745687898144968</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>579670</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>552240</v>
+        <v>551461</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>605142</v>
+        <v>605324</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7097220930260612</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6761379084721623</v>
+        <v>0.6751842098471156</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7409077270427761</v>
+        <v>0.7411306947965366</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>327</v>
@@ -1123,19 +1123,19 @@
         <v>332421</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>310352</v>
+        <v>309921</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>354073</v>
+        <v>358109</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6065469386579156</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5662786925159313</v>
+        <v>0.5654922331773349</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6460539151369898</v>
+        <v>0.6534188602789341</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>897</v>
@@ -1144,19 +1144,19 @@
         <v>912092</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>878244</v>
+        <v>878711</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>943302</v>
+        <v>946531</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6682909692999609</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6434905766611317</v>
+        <v>0.6438331762113466</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6911587808319644</v>
+        <v>0.6935245006853632</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>120566</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101227</v>
+        <v>100231</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143323</v>
+        <v>142098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1476154292726689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1239373654093833</v>
+        <v>0.1227184677833937</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1754783936726203</v>
+        <v>0.1739788408830134</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -1194,19 +1194,19 @@
         <v>123427</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104135</v>
+        <v>104332</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>142245</v>
+        <v>144123</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2252098657937625</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1900083250498336</v>
+        <v>0.1903680240228992</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2595451294455273</v>
+        <v>0.262972419436852</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>240</v>
@@ -1215,19 +1215,19 @@
         <v>243993</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>219149</v>
+        <v>216723</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>276251</v>
+        <v>271736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1787743329801588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1605706449750174</v>
+        <v>0.1587932175226889</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2024093400032234</v>
+        <v>0.1991017049492527</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>34508</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24142</v>
+        <v>24149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46052</v>
+        <v>45998</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1789115702439922</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1251692738294999</v>
+        <v>0.1252066462384899</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2387660133316926</v>
+        <v>0.2384846460538526</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -1340,19 +1340,19 @@
         <v>34632</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25319</v>
+        <v>25348</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45389</v>
+        <v>45832</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2496287863923266</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1825012157871005</v>
+        <v>0.182710806169224</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3271666133210361</v>
+        <v>0.3303589825720458</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>64</v>
@@ -1361,19 +1361,19 @@
         <v>69140</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>53472</v>
+        <v>54481</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>86235</v>
+        <v>85950</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2084971574225229</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1612512177308521</v>
+        <v>0.1642938162499627</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2600516094168784</v>
+        <v>0.2591921616750491</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>130586</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116029</v>
+        <v>116082</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142319</v>
+        <v>143229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6770487525457571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6015722217623916</v>
+        <v>0.6018473782839129</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7378767575636448</v>
+        <v>0.7425977063844883</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1411,19 +1411,19 @@
         <v>85755</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75506</v>
+        <v>73774</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98033</v>
+        <v>97531</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6181254103681749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5442510131528293</v>
+        <v>0.5317686430833908</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7066269195166929</v>
+        <v>0.7030054351799337</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>209</v>
@@ -1432,19 +1432,19 @@
         <v>216341</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>198298</v>
+        <v>196325</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>234006</v>
+        <v>232704</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6523973059561657</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5979859965892735</v>
+        <v>0.5920381926801445</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7056698346690098</v>
+        <v>0.7017432836277258</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>27782</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19091</v>
+        <v>18933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39478</v>
+        <v>39544</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1440396772102507</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09898063084708598</v>
+        <v>0.09816282681370497</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2046832397336035</v>
+        <v>0.2050245560939411</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1482,19 +1482,19 @@
         <v>18347</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10976</v>
+        <v>11377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27166</v>
+        <v>26507</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1322458032394985</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07911563692032422</v>
+        <v>0.0820065877111323</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1958155092229802</v>
+        <v>0.191065216410138</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>45</v>
@@ -1503,19 +1503,19 @@
         <v>46129</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34402</v>
+        <v>33803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>59382</v>
+        <v>60097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1391055366213114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1037423383187956</v>
+        <v>0.1019360203032006</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1790717593704672</v>
+        <v>0.1812298718984681</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>215817</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>188295</v>
+        <v>191020</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>244337</v>
+        <v>246475</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1560027249101229</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1361079951544549</v>
+        <v>0.1380782491001688</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.176617771923253</v>
+        <v>0.1781636123130676</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>152</v>
@@ -1628,19 +1628,19 @@
         <v>159958</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>138411</v>
+        <v>138421</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>183632</v>
+        <v>186369</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1852803045199973</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1603226508291286</v>
+        <v>0.1603337361530417</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2127017059751829</v>
+        <v>0.2158721928232974</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>362</v>
@@ -1649,19 +1649,19 @@
         <v>375775</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>342575</v>
+        <v>342071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>413126</v>
+        <v>414131</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1672528496111313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1524756991822979</v>
+        <v>0.1522513737518</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1838772078987084</v>
+        <v>0.1843246893033011</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>975027</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>940013</v>
+        <v>941953</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1012426</v>
+        <v>1008213</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7047943714214205</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.679484780146253</v>
+        <v>0.6808873783169015</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.731828099155324</v>
+        <v>0.7287833517273493</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>515</v>
@@ -1699,19 +1699,19 @@
         <v>526495</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>497754</v>
+        <v>498812</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>551490</v>
+        <v>556491</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6098417386294808</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5765507574094</v>
+        <v>0.5777763322570553</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6387941739296521</v>
+        <v>0.644586220297986</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1468</v>
@@ -1720,19 +1720,19 @@
         <v>1501521</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1453754</v>
+        <v>1455509</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1544666</v>
+        <v>1547988</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6683081258426329</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6470475921271874</v>
+        <v>0.6478287580209584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6875113537488036</v>
+        <v>0.6889897188962755</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>192576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>168027</v>
+        <v>166248</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>219543</v>
+        <v>220423</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1392029036684565</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1214580129406926</v>
+        <v>0.1201719894130831</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1586960053155585</v>
+        <v>0.1593316063980911</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>178</v>
@@ -1770,19 +1770,19 @@
         <v>176877</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>155483</v>
+        <v>154123</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>202435</v>
+        <v>200972</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.204877956850522</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1800964439960327</v>
+        <v>0.1785216306458563</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2344816075500193</v>
+        <v>0.2327874657376076</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>362</v>
@@ -1791,19 +1791,19 @@
         <v>369453</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>335495</v>
+        <v>334654</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>404797</v>
+        <v>404464</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1644390245462358</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1493246499780266</v>
+        <v>0.1489500421922199</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1801699951788216</v>
+        <v>0.1800216575865614</v>
       </c>
     </row>
     <row r="19">
@@ -2134,19 +2134,19 @@
         <v>101634</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85986</v>
+        <v>85735</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>121990</v>
+        <v>121355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3033809689370672</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2566694422079135</v>
+        <v>0.2559205848039606</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3641429478589933</v>
+        <v>0.3622476045426288</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -2155,19 +2155,19 @@
         <v>53837</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41345</v>
+        <v>41213</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66692</v>
+        <v>67132</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2691362083134091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2066887092860086</v>
+        <v>0.2060285379199291</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3333963952347127</v>
+        <v>0.3355995037831853</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>148</v>
@@ -2176,19 +2176,19 @@
         <v>155471</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134026</v>
+        <v>133066</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>177812</v>
+        <v>178680</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2905778369025476</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2504954456857214</v>
+        <v>0.2487014683647226</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3323329996813758</v>
+        <v>0.3339543711961089</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>175075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155547</v>
+        <v>156828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193297</v>
+        <v>193055</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5226029973045146</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4643138996228851</v>
+        <v>0.4681353166948531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5769980431271036</v>
+        <v>0.5762762699466051</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -2226,19 +2226,19 @@
         <v>105388</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91166</v>
+        <v>90082</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>120153</v>
+        <v>120081</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5268433213412838</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4557480865726424</v>
+        <v>0.4503261000790641</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6006538788592393</v>
+        <v>0.6002953742053955</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>265</v>
@@ -2247,19 +2247,19 @@
         <v>280463</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>259134</v>
+        <v>256070</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>304774</v>
+        <v>303449</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5241883326236465</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4843246977405177</v>
+        <v>0.4785982260097601</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5696261667695449</v>
+        <v>0.5671505796923874</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>58296</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45839</v>
+        <v>44677</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72102</v>
+        <v>73314</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1740160337584181</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1368318209544549</v>
+        <v>0.133361978459892</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2152268178793701</v>
+        <v>0.2188431427794082</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -2297,19 +2297,19 @@
         <v>40812</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29592</v>
+        <v>29442</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54081</v>
+        <v>53906</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2040204703453072</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1479314573223613</v>
+        <v>0.1471840684560297</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2703537603129912</v>
+        <v>0.2694809923453116</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>91</v>
@@ -2318,19 +2318,19 @@
         <v>99108</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>81550</v>
+        <v>81392</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119116</v>
+        <v>119328</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1852338304738059</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1524178423795549</v>
+        <v>0.1521230970879608</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2226284143783341</v>
+        <v>0.2230259516161013</v>
       </c>
     </row>
     <row r="7">
@@ -2422,19 +2422,19 @@
         <v>262052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>234005</v>
+        <v>233664</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>289443</v>
+        <v>292471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3071835923781816</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2743060500902084</v>
+        <v>0.2739060932395936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3392913878918728</v>
+        <v>0.3428411357722949</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>140</v>
@@ -2443,19 +2443,19 @@
         <v>153205</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130917</v>
+        <v>131592</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>174575</v>
+        <v>176018</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2405819309810802</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2055822621590636</v>
+        <v>0.2066418251398786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2741398728531447</v>
+        <v>0.276406106527833</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>379</v>
@@ -2464,19 +2464,19 @@
         <v>415258</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>379813</v>
+        <v>376384</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>456467</v>
+        <v>449192</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2787166497211258</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2549262384185497</v>
+        <v>0.2526250026247371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3063759653409712</v>
+        <v>0.3014932903957405</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>461366</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>431243</v>
+        <v>432455</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>491085</v>
+        <v>497203</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5408230615316082</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5055121761393175</v>
+        <v>0.5069329448110949</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5756610239576477</v>
+        <v>0.5828323545129459</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>310</v>
@@ -2514,19 +2514,19 @@
         <v>336926</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>311381</v>
+        <v>309249</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>364502</v>
+        <v>362936</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5290824160858332</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4889688286005736</v>
+        <v>0.4856212416738382</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.572386189174264</v>
+        <v>0.5699269251967936</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>746</v>
@@ -2535,19 +2535,19 @@
         <v>798291</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>754859</v>
+        <v>758887</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>840591</v>
+        <v>836474</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5358048641826116</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5066537046882272</v>
+        <v>0.5093573313325515</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5641960840347109</v>
+        <v>0.5614327258158455</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>129663</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>109783</v>
+        <v>109041</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>152741</v>
+        <v>152040</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1519933460902101</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1286904061030138</v>
+        <v>0.1278206118893063</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1790466788294163</v>
+        <v>0.1782242566335765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -2585,19 +2585,19 @@
         <v>146680</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126225</v>
+        <v>125870</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>171237</v>
+        <v>168896</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2303356529330866</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1982146064158453</v>
+        <v>0.1976569953006221</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.268897111131129</v>
+        <v>0.2652215903315812</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>260</v>
@@ -2606,19 +2606,19 @@
         <v>276343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>247440</v>
+        <v>245654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>310403</v>
+        <v>308318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1854784860962625</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.166078973393939</v>
+        <v>0.1648804771837855</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2083393849009829</v>
+        <v>0.2069395834706789</v>
       </c>
     </row>
     <row r="11">
@@ -2710,19 +2710,19 @@
         <v>41481</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30113</v>
+        <v>31129</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54302</v>
+        <v>54711</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2569499802755004</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1865317186415672</v>
+        <v>0.1928237991201328</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3363679596936931</v>
+        <v>0.3389046255929355</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -2731,19 +2731,19 @@
         <v>51146</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39721</v>
+        <v>40713</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63135</v>
+        <v>64355</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.366841771245199</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.284900178824032</v>
+        <v>0.2920142898249898</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4528322251195908</v>
+        <v>0.4615864641892316</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>84</v>
@@ -2752,19 +2752,19 @@
         <v>92627</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>77293</v>
+        <v>77099</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>111261</v>
+        <v>110119</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3078754414009358</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2569089261052687</v>
+        <v>0.256264992688177</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3698132205100432</v>
+        <v>0.3660149400858106</v>
       </c>
     </row>
     <row r="13">
@@ -2781,19 +2781,19 @@
         <v>91020</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77791</v>
+        <v>75858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105626</v>
+        <v>103519</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5638133143460162</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4818668489005782</v>
+        <v>0.4698982787534928</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6542919711547803</v>
+        <v>0.6412378500760743</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -2802,19 +2802,19 @@
         <v>69753</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56085</v>
+        <v>57116</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82317</v>
+        <v>81323</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5002981859473704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4022673230332</v>
+        <v>0.4096645761566313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5904155430153715</v>
+        <v>0.5832857747434854</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -2823,19 +2823,19 @@
         <v>160772</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>142364</v>
+        <v>143524</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>178974</v>
+        <v>178536</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5343794760802065</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4731943871141766</v>
+        <v>0.4770489893012351</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.594878682435006</v>
+        <v>0.5934225106046908</v>
       </c>
     </row>
     <row r="14">
@@ -2852,19 +2852,19 @@
         <v>28935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19072</v>
+        <v>19376</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41727</v>
+        <v>41920</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1792367053784835</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1181377147593279</v>
+        <v>0.1200212074249357</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2584766587056077</v>
+        <v>0.2596713689881708</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -2873,19 +2873,19 @@
         <v>18524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11638</v>
+        <v>10732</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29052</v>
+        <v>28006</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1328600428074306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08347610990708171</v>
+        <v>0.07697561651787095</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2083730092488401</v>
+        <v>0.200872050458534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -2894,19 +2894,19 @@
         <v>47459</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33464</v>
+        <v>34806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61494</v>
+        <v>62160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1577450825188577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1112295726235676</v>
+        <v>0.1156898395618032</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2043970047556785</v>
+        <v>0.2066092637045968</v>
       </c>
     </row>
     <row r="15">
@@ -2998,19 +2998,19 @@
         <v>405168</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>370970</v>
+        <v>366970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>441402</v>
+        <v>438919</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3002304576374719</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2748896103263816</v>
+        <v>0.2719262641170025</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3270799379988296</v>
+        <v>0.32524022480891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>237</v>
@@ -3019,19 +3019,19 @@
         <v>258188</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>230494</v>
+        <v>229660</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>287959</v>
+        <v>285997</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2644639569567376</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2360961339416115</v>
+        <v>0.2352426229173227</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2949585368991613</v>
+        <v>0.2929482519259787</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>611</v>
@@ -3040,19 +3040,19 @@
         <v>663356</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>622743</v>
+        <v>613538</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>709163</v>
+        <v>707517</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2852171827922962</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2677553717745801</v>
+        <v>0.2637975220471209</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3049126234364369</v>
+        <v>0.3042048419557625</v>
       </c>
     </row>
     <row r="17">
@@ -3069,19 +3069,19 @@
         <v>727460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>690069</v>
+        <v>690622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>763339</v>
+        <v>768625</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5390503122922909</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5113434284263961</v>
+        <v>0.511752685489236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.565636324265383</v>
+        <v>0.5695535076915144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>472</v>
@@ -3090,19 +3090,19 @@
         <v>512066</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>479274</v>
+        <v>479421</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>543907</v>
+        <v>544640</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5245129264439902</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4909233036461051</v>
+        <v>0.4910745978839425</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5571274376556867</v>
+        <v>0.5578782196150346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1160</v>
@@ -3111,19 +3111,19 @@
         <v>1239526</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1190890</v>
+        <v>1183981</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1286893</v>
+        <v>1288928</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5329481282620687</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5120363126789099</v>
+        <v>0.5090659193768189</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5533138657009992</v>
+        <v>0.5541889894343713</v>
       </c>
     </row>
     <row r="18">
@@ -3140,19 +3140,19 @@
         <v>216894</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>189357</v>
+        <v>191970</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>247986</v>
+        <v>249453</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1607192300702372</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1403138176053126</v>
+        <v>0.1422503064378202</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.183758299620702</v>
+        <v>0.1848455372000533</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>189</v>
@@ -3161,19 +3161,19 @@
         <v>206016</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>181441</v>
+        <v>181159</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>232026</v>
+        <v>233668</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2110231165992723</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1858507551635206</v>
+        <v>0.1855624688247544</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2376659511400016</v>
+        <v>0.2393476775645219</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>391</v>
@@ -3182,19 +3182,19 @@
         <v>422910</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>388034</v>
+        <v>388351</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>460213</v>
+        <v>464580</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1818346889456351</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1668396862043389</v>
+        <v>0.1669758329703429</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1978737458729516</v>
+        <v>0.1997513044727494</v>
       </c>
     </row>
     <row r="19">
@@ -3525,19 +3525,19 @@
         <v>38098</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28093</v>
+        <v>28194</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49391</v>
+        <v>49838</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1704059528801054</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1256541762919804</v>
+        <v>0.1261052667596567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2209158997696536</v>
+        <v>0.2229178165823366</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -3546,19 +3546,19 @@
         <v>26113</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17132</v>
+        <v>17434</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36572</v>
+        <v>36224</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1929631779366986</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.126592942256163</v>
+        <v>0.1288266499570107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2702506466667707</v>
+        <v>0.2676787802778656</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -3567,19 +3567,19 @@
         <v>64212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49909</v>
+        <v>51049</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79112</v>
+        <v>80747</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1789114394315609</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1390594452896155</v>
+        <v>0.1422368758823816</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.220428649624706</v>
+        <v>0.224983482703917</v>
       </c>
     </row>
     <row r="5">
@@ -3596,19 +3596,19 @@
         <v>164696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150546</v>
+        <v>150935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177211</v>
+        <v>177100</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7366539057834512</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6733630094938753</v>
+        <v>0.6751044405031319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7926309099649295</v>
+        <v>0.7921344373190219</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>90</v>
@@ -3617,19 +3617,19 @@
         <v>91081</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>79957</v>
+        <v>80264</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101875</v>
+        <v>102111</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6730415883163622</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5908355951849086</v>
+        <v>0.5931046673706845</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7528024580314366</v>
+        <v>0.7545470593967304</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>246</v>
@@ -3638,19 +3638,19 @@
         <v>255778</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>239018</v>
+        <v>236829</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>273599</v>
+        <v>271722</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7126680782108749</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6659711477545741</v>
+        <v>0.6598701037633007</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.762322418350683</v>
+        <v>0.7570933787753722</v>
       </c>
     </row>
     <row r="6">
@@ -3667,19 +3667,19 @@
         <v>20779</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13432</v>
+        <v>13404</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31019</v>
+        <v>30326</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09294014133644336</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06007695637139326</v>
+        <v>0.05995527130763036</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1387416911752484</v>
+        <v>0.1356446287436695</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -3688,19 +3688,19 @@
         <v>18133</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10957</v>
+        <v>11000</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27408</v>
+        <v>26644</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1339952337469392</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08096272613934033</v>
+        <v>0.08128322973050577</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2025316315991285</v>
+        <v>0.1968810776194813</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>37</v>
@@ -3709,19 +3709,19 @@
         <v>38912</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28410</v>
+        <v>28635</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52963</v>
+        <v>51493</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1084204823575642</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.079159202609121</v>
+        <v>0.07978533680946018</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1475695048165418</v>
+        <v>0.1434748358624691</v>
       </c>
     </row>
     <row r="7">
@@ -3813,19 +3813,19 @@
         <v>183172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>160792</v>
+        <v>160691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>207581</v>
+        <v>208851</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2286921834046897</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2007502497537965</v>
+        <v>0.2006245708618528</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2591670669952057</v>
+        <v>0.2607524579509056</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>135</v>
@@ -3834,19 +3834,19 @@
         <v>141316</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>122220</v>
+        <v>122363</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>164062</v>
+        <v>164541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2144395941409035</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1854628723885904</v>
+        <v>0.1856789784741368</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2489558463916418</v>
+        <v>0.2496832026922022</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>306</v>
@@ -3855,19 +3855,19 @@
         <v>324488</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>294099</v>
+        <v>292603</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>360350</v>
+        <v>360807</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.222258796166831</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.20144382543158</v>
+        <v>0.2004193418005887</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2468227557109629</v>
+        <v>0.2471357760460758</v>
       </c>
     </row>
     <row r="9">
@@ -3884,19 +3884,19 @@
         <v>511943</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>483094</v>
+        <v>483859</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>537835</v>
+        <v>540564</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6391647289179819</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6031471599411099</v>
+        <v>0.6041013312437908</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6714917142937354</v>
+        <v>0.6748985979910773</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>419</v>
@@ -3905,19 +3905,19 @@
         <v>429840</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>403455</v>
+        <v>406789</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>455476</v>
+        <v>455321</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6522597651437024</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6122224758701518</v>
+        <v>0.6172814999821066</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6911620094876594</v>
+        <v>0.6909254567743383</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>896</v>
@@ -3926,19 +3926,19 @@
         <v>941782</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>906825</v>
+        <v>902484</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>979371</v>
+        <v>980894</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6450756155207343</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6211314085101773</v>
+        <v>0.6181582152025742</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6708221681410558</v>
+        <v>0.6718657415903554</v>
       </c>
     </row>
     <row r="10">
@@ -3955,19 +3955,19 @@
         <v>105841</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87407</v>
+        <v>86207</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128038</v>
+        <v>126470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1321430876773284</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1091278701894261</v>
+        <v>0.107629742647053</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1598560683460368</v>
+        <v>0.1578987559831307</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -3976,19 +3976,19 @@
         <v>87845</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70572</v>
+        <v>70347</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106180</v>
+        <v>107308</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1333006407153941</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1070900091952658</v>
+        <v>0.1067475477408381</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1611230166969588</v>
+        <v>0.1628337972566168</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -3997,19 +3997,19 @@
         <v>193686</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>167281</v>
+        <v>169807</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223171</v>
+        <v>223637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1326655883124346</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1145793643972799</v>
+        <v>0.1163093862374552</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1528613512485251</v>
+        <v>0.1531804991097014</v>
       </c>
     </row>
     <row r="11">
@@ -4101,19 +4101,19 @@
         <v>31926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21378</v>
+        <v>22466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42578</v>
+        <v>43729</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.23622521562104</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1581794854797536</v>
+        <v>0.1662325089792635</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3150438605665275</v>
+        <v>0.3235598427367281</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -4122,19 +4122,19 @@
         <v>29775</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21012</v>
+        <v>20669</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40260</v>
+        <v>40676</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.253185937803779</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1786749457179674</v>
+        <v>0.1757590581927573</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3423435387211068</v>
+        <v>0.3458843594945847</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>55</v>
@@ -4143,19 +4143,19 @@
         <v>61700</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>48538</v>
+        <v>48739</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>76520</v>
+        <v>77499</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2441167145438809</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1920382602282266</v>
+        <v>0.1928358583217279</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3027491039480563</v>
+        <v>0.3066217216283231</v>
       </c>
     </row>
     <row r="13">
@@ -4172,19 +4172,19 @@
         <v>90905</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79503</v>
+        <v>78521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102528</v>
+        <v>101913</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6726220074145367</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5882611476859557</v>
+        <v>0.5809897473174932</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7586221511391568</v>
+        <v>0.7540746715962995</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -4193,19 +4193,19 @@
         <v>71229</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58798</v>
+        <v>60454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80399</v>
+        <v>81810</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6056871698528282</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4999858990189148</v>
+        <v>0.5140683643424072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6836654300176314</v>
+        <v>0.6956595905793761</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -4214,19 +4214,19 @@
         <v>162134</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145753</v>
+        <v>143685</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>178119</v>
+        <v>177219</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6414785105263956</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5766685602487059</v>
+        <v>0.5684860091650553</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7047238891097931</v>
+        <v>0.701162417225237</v>
       </c>
     </row>
     <row r="14">
@@ -4243,19 +4243,19 @@
         <v>12319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7034</v>
+        <v>6259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20739</v>
+        <v>21110</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09115277696442338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05204762735588166</v>
+        <v>0.04630983145488678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1534491022440179</v>
+        <v>0.1561931289965835</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -4264,19 +4264,19 @@
         <v>16597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10064</v>
+        <v>9466</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25761</v>
+        <v>24716</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1411268923433928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08557962794673069</v>
+        <v>0.08049362923409469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2190576135883197</v>
+        <v>0.2101694147541637</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>27</v>
@@ -4285,19 +4285,19 @@
         <v>28916</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19580</v>
+        <v>19762</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>39876</v>
+        <v>40554</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1144047749297235</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07746935000332289</v>
+        <v>0.07818919797307562</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1577670844479862</v>
+        <v>0.1604490789991717</v>
       </c>
     </row>
     <row r="15">
@@ -4389,19 +4389,19 @@
         <v>253197</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>226134</v>
+        <v>227192</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>283451</v>
+        <v>283797</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2183331515423394</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1949970996798485</v>
+        <v>0.1959092023438192</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2444219574155369</v>
+        <v>0.2447199160390925</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>187</v>
@@ -4410,19 +4410,19 @@
         <v>197204</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>174572</v>
+        <v>171869</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>223426</v>
+        <v>225033</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2162491572759409</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.191431937110081</v>
+        <v>0.1884677302439284</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2450040556211567</v>
+        <v>0.2467654211197152</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>424</v>
@@ -4431,19 +4431,19 @@
         <v>450400</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>414656</v>
+        <v>412960</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>489197</v>
+        <v>488838</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2174157703678533</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2001612394317506</v>
+        <v>0.1993424963604886</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2361438263621718</v>
+        <v>0.235970183128106</v>
       </c>
     </row>
     <row r="17">
@@ -4460,19 +4460,19 @@
         <v>767544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>734359</v>
+        <v>732824</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>798855</v>
+        <v>799236</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.661858712952506</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6332431937023653</v>
+        <v>0.6319187239364881</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6888582886165293</v>
+        <v>0.6891865244562521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>579</v>
@@ -4481,19 +4481,19 @@
         <v>592150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>560917</v>
+        <v>560789</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>620682</v>
+        <v>624139</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6493378739241183</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6150884493414132</v>
+        <v>0.614948231555673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6806254408555219</v>
+        <v>0.6844157733870615</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1294</v>
@@ -4502,19 +4502,19 @@
         <v>1359694</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1318536</v>
+        <v>1315446</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1403434</v>
+        <v>1405761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6563469981658502</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6364793247668745</v>
+        <v>0.6349881334256388</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6774612603602477</v>
+        <v>0.6785844466766811</v>
       </c>
     </row>
     <row r="18">
@@ -4531,19 +4531,19 @@
         <v>138939</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>118593</v>
+        <v>118901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>163604</v>
+        <v>166641</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1198081355051546</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1022636269846697</v>
+        <v>0.1025291299887579</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1410767014097504</v>
+        <v>0.1436960825990883</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>117</v>
@@ -4552,19 +4552,19 @@
         <v>122575</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>102295</v>
+        <v>100215</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>144599</v>
+        <v>143718</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1344129687999407</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1121739176463232</v>
+        <v>0.1098935103821102</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1585635566118975</v>
+        <v>0.1575973844257999</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>243</v>
@@ -4573,19 +4573,19 @@
         <v>261514</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>232333</v>
+        <v>232133</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>293619</v>
+        <v>292952</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1262372314662966</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1121511109318781</v>
+        <v>0.1120543855513124</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1417347260512502</v>
+        <v>0.1414130482274296</v>
       </c>
     </row>
     <row r="19">
